--- a/Docs/2015-TH-XLP-ChallengeModules.xlsx
+++ b/Docs/2015-TH-XLP-ChallengeModules.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="19200" windowHeight="11440"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="19200" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="226">
   <si>
     <t>第1天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1688,6 +1688,10 @@
   <si>
     <t>根据顾老师的点评打分（25分）
 严格控制时间在要求时间之内，超时者不得分（5分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2235,42 +2239,6 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2299,15 +2267,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2325,6 +2284,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2334,15 +2308,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2647,29 +2651,29 @@
       <pane xSplit="4" ySplit="1" topLeftCell="L45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N48" sqref="N48"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47:C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="34" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="35" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="12.83203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="58" customWidth="1"/>
-    <col min="13" max="13" width="19" style="58" customWidth="1"/>
-    <col min="14" max="14" width="58.6640625" style="61" customWidth="1"/>
-    <col min="15" max="15" width="49.6640625" style="80" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="8.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="42" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="12.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="46" customWidth="1"/>
+    <col min="13" max="13" width="19" style="46" customWidth="1"/>
+    <col min="14" max="14" width="58.625" style="49" customWidth="1"/>
+    <col min="15" max="15" width="49.625" style="62" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="17" customFormat="1">
+    <row r="1" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -2701,20 +2705,20 @@
       <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="54" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="24.75" customHeight="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2722,21 +2726,21 @@
       <c r="C2" s="33"/>
       <c r="F2" s="37"/>
       <c r="G2" s="23"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="67" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="55" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="75.75" customHeight="1">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="14" t="s">
         <v>43</v>
       </c>
@@ -2753,27 +2757,27 @@
       <c r="J3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="M3" s="65">
+      <c r="M3" s="53">
         <v>6</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="63" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="45" customHeight="1">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="14" t="s">
         <v>48</v>
       </c>
@@ -2785,21 +2789,21 @@
         <v>51</v>
       </c>
       <c r="H4" s="10"/>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="M4" s="65"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="69"/>
-    </row>
-    <row r="5" spans="1:15" s="5" customFormat="1" ht="161" customHeight="1">
+      <c r="M4" s="53"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="64"/>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="161.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="14" t="s">
         <v>60</v>
       </c>
@@ -2811,21 +2815,21 @@
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="10"/>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="70"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="79" customHeight="1">
+      <c r="M5" s="53"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="65"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="80" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -2841,23 +2845,23 @@
       <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="M6" s="65"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="71" t="s">
+      <c r="M6" s="53"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="56" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="185" customHeight="1">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="185.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="14" t="s">
         <v>48</v>
       </c>
@@ -2873,23 +2877,23 @@
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="M7" s="65"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="72" t="s">
+      <c r="M7" s="53"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="57" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" ht="48" customHeight="1">
+    <row r="8" spans="1:15" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="14" t="s">
         <v>48</v>
       </c>
@@ -2905,23 +2909,23 @@
       <c r="H8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="M8" s="65"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="73" t="s">
+      <c r="M8" s="53"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="58" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="64.5" customHeight="1">
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="14" t="s">
         <v>48</v>
       </c>
@@ -2938,23 +2942,23 @@
         <v>33</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="M9" s="65"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="74" t="s">
+      <c r="M9" s="53"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="59" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="5" customFormat="1" ht="64.5" customHeight="1">
+    <row r="10" spans="1:15" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="14" t="s">
         <v>48</v>
       </c>
@@ -2966,21 +2970,21 @@
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="9"/>
-      <c r="L10" s="59" t="s">
+      <c r="L10" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="M10" s="65"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="74"/>
-    </row>
-    <row r="11" spans="1:15" s="5" customFormat="1" ht="117" customHeight="1">
+      <c r="M10" s="53"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="59"/>
+    </row>
+    <row r="11" spans="1:15" s="5" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="47"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="14" t="s">
         <v>48</v>
       </c>
@@ -2996,25 +3000,25 @@
       <c r="H11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="M11" s="65">
+      <c r="M11" s="53">
         <v>8</v>
       </c>
-      <c r="N11" s="63" t="s">
+      <c r="N11" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="O11" s="74"/>
-    </row>
-    <row r="12" spans="1:15" s="5" customFormat="1" ht="108" customHeight="1">
+      <c r="O11" s="59"/>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="14" t="s">
         <v>48</v>
       </c>
@@ -3030,25 +3034,25 @@
       <c r="H12" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="M12" s="65">
+      <c r="M12" s="53">
         <v>15</v>
       </c>
-      <c r="N12" s="62" t="s">
+      <c r="N12" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="O12" s="75"/>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="81" customHeight="1">
+      <c r="O12" s="60"/>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="47"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="14" t="s">
         <v>48</v>
       </c>
@@ -3064,25 +3068,25 @@
       <c r="H13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="59" t="s">
+      <c r="L13" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="M13" s="65">
+      <c r="M13" s="53">
         <v>18</v>
       </c>
-      <c r="N13" s="62" t="s">
+      <c r="N13" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="O13" s="71"/>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="63" customHeight="1">
+      <c r="O13" s="56"/>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="14" t="s">
         <v>48</v>
       </c>
@@ -3092,21 +3096,21 @@
       <c r="F14" s="39"/>
       <c r="G14" s="25"/>
       <c r="H14" s="2"/>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="M14" s="65"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="71"/>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="40" customHeight="1">
+      <c r="M14" s="53"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="56"/>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="14" t="s">
         <v>48</v>
       </c>
@@ -3120,23 +3124,23 @@
       <c r="H15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="59" t="s">
+      <c r="L15" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="M15" s="65"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="76" t="s">
+      <c r="M15" s="53"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="66" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="105.75" customHeight="1">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="47"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="14" t="s">
         <v>48</v>
       </c>
@@ -3152,25 +3156,25 @@
       <c r="H16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="59" t="s">
+      <c r="L16" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="M16" s="65">
+      <c r="M16" s="53">
         <v>8</v>
       </c>
-      <c r="N16" s="62" t="s">
+      <c r="N16" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="O16" s="77"/>
-    </row>
-    <row r="17" spans="1:138" s="1" customFormat="1" ht="107" customHeight="1">
+      <c r="O16" s="67"/>
+    </row>
+    <row r="17" spans="1:138" s="1" customFormat="1" ht="107.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="14" t="s">
         <v>48</v>
       </c>
@@ -3184,25 +3188,25 @@
       <c r="H17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="M17" s="65">
+      <c r="M17" s="53">
         <v>12</v>
       </c>
-      <c r="N17" s="62" t="s">
+      <c r="N17" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="O17" s="78"/>
-    </row>
-    <row r="18" spans="1:138" s="5" customFormat="1" ht="126.75" customHeight="1">
+      <c r="O17" s="68"/>
+    </row>
+    <row r="18" spans="1:138" s="5" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="14" t="s">
         <v>48</v>
       </c>
@@ -3218,25 +3222,25 @@
       <c r="H18" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="L18" s="59" t="s">
+      <c r="L18" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="M18" s="65">
+      <c r="M18" s="53">
         <v>18</v>
       </c>
-      <c r="N18" s="62" t="s">
+      <c r="N18" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="O18" s="71"/>
-    </row>
-    <row r="19" spans="1:138" s="5" customFormat="1" ht="126.75" customHeight="1">
+      <c r="O18" s="56"/>
+    </row>
+    <row r="19" spans="1:138" s="5" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="14" t="s">
         <v>103</v>
       </c>
@@ -3247,21 +3251,21 @@
         <v>104</v>
       </c>
       <c r="G19" s="25"/>
-      <c r="L19" s="59" t="s">
+      <c r="L19" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="M19" s="65"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="71"/>
-    </row>
-    <row r="20" spans="1:138" s="5" customFormat="1" ht="126.75" customHeight="1">
+      <c r="M19" s="53"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="56"/>
+    </row>
+    <row r="20" spans="1:138" s="5" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="14" t="s">
         <v>48</v>
       </c>
@@ -3274,42 +3278,42 @@
       <c r="G20" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="L20" s="59" t="s">
+      <c r="L20" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="M20" s="65">
+      <c r="M20" s="53">
         <v>5</v>
       </c>
-      <c r="N20" s="62" t="s">
+      <c r="N20" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="71" t="s">
+      <c r="O20" s="56" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:138" s="11" customFormat="1" ht="41.25" customHeight="1">
+    <row r="21" spans="1:138" s="11" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="14"/>
       <c r="E21" s="20"/>
       <c r="F21" s="40"/>
       <c r="G21" s="26"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="71"/>
-    </row>
-    <row r="22" spans="1:138" s="1" customFormat="1" ht="149" customHeight="1">
+      <c r="L21" s="47"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="56"/>
+    </row>
+    <row r="22" spans="1:138" s="1" customFormat="1" ht="149.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="55"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="14" t="s">
         <v>43</v>
       </c>
@@ -3321,27 +3325,27 @@
         <v>144</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="L22" s="59" t="s">
+      <c r="L22" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="M22" s="65">
+      <c r="M22" s="53">
         <v>2</v>
       </c>
-      <c r="N22" s="62" t="s">
+      <c r="N22" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="O22" s="71" t="s">
+      <c r="O22" s="56" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:138" s="5" customFormat="1" ht="119.25" customHeight="1">
+    <row r="23" spans="1:138" s="5" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="47"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="14" t="s">
         <v>48</v>
       </c>
@@ -3357,25 +3361,25 @@
       <c r="H23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="59" t="s">
+      <c r="L23" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="M23" s="65">
+      <c r="M23" s="53">
         <v>18</v>
       </c>
-      <c r="N23" s="62" t="s">
+      <c r="N23" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="O23" s="71"/>
-    </row>
-    <row r="24" spans="1:138" s="1" customFormat="1" ht="236" customHeight="1">
+      <c r="O23" s="56"/>
+    </row>
+    <row r="24" spans="1:138" s="1" customFormat="1" ht="236.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="14" t="s">
         <v>48</v>
       </c>
@@ -3389,23 +3393,23 @@
       <c r="H24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="M24" s="65"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="79" t="s">
+      <c r="M24" s="53"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="61" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:138" s="1" customFormat="1" ht="76" customHeight="1">
+    <row r="25" spans="1:138" s="1" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="14" t="s">
         <v>48</v>
       </c>
@@ -3421,21 +3425,21 @@
       <c r="H25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="M25" s="65"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="71"/>
-    </row>
-    <row r="26" spans="1:138" s="2" customFormat="1" ht="121" customHeight="1">
+      <c r="M25" s="53"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="56"/>
+    </row>
+    <row r="26" spans="1:138" s="2" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="14" t="s">
         <v>48</v>
       </c>
@@ -3445,25 +3449,25 @@
       <c r="F26" s="38"/>
       <c r="G26" s="27"/>
       <c r="H26" s="10"/>
-      <c r="L26" s="59" t="s">
+      <c r="L26" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="M26" s="65">
+      <c r="M26" s="53">
         <v>12</v>
       </c>
-      <c r="N26" s="62" t="s">
+      <c r="N26" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="O26" s="71"/>
-    </row>
-    <row r="27" spans="1:138" s="2" customFormat="1" ht="116.25" customHeight="1">
+      <c r="O26" s="56"/>
+    </row>
+    <row r="27" spans="1:138" s="2" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="70"/>
       <c r="D27" s="14" t="s">
         <v>48</v>
       </c>
@@ -3473,21 +3477,21 @@
       <c r="F27" s="38"/>
       <c r="G27" s="27"/>
       <c r="H27" s="10"/>
-      <c r="L27" s="59" t="s">
+      <c r="L27" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="M27" s="65"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="71"/>
-    </row>
-    <row r="28" spans="1:138" s="10" customFormat="1" ht="116.25" customHeight="1">
+      <c r="M27" s="53"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="56"/>
+    </row>
+    <row r="28" spans="1:138" s="10" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="47"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="14" t="s">
         <v>48</v>
       </c>
@@ -3503,25 +3507,25 @@
       <c r="H28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="M28" s="65">
+      <c r="M28" s="53">
         <v>18</v>
       </c>
-      <c r="N28" s="62" t="s">
+      <c r="N28" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="O28" s="71"/>
-    </row>
-    <row r="29" spans="1:138" s="10" customFormat="1" ht="116.25" customHeight="1">
+      <c r="O28" s="56"/>
+    </row>
+    <row r="29" spans="1:138" s="10" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="14" t="s">
         <v>48</v>
       </c>
@@ -3530,25 +3534,25 @@
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="27"/>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="M29" s="65">
+      <c r="M29" s="53">
         <v>12</v>
       </c>
-      <c r="N29" s="62" t="s">
+      <c r="N29" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="O29" s="71"/>
-    </row>
-    <row r="30" spans="1:138" s="10" customFormat="1" ht="116.25" customHeight="1">
+      <c r="O29" s="56"/>
+    </row>
+    <row r="30" spans="1:138" s="10" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="47"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="14" t="s">
         <v>48</v>
       </c>
@@ -3559,25 +3563,25 @@
       <c r="G30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L30" s="59" t="s">
+      <c r="L30" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="M30" s="65">
+      <c r="M30" s="53">
         <v>5</v>
       </c>
-      <c r="N30" s="62" t="s">
+      <c r="N30" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="O30" s="71" t="s">
+      <c r="O30" s="56" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:138" s="11" customFormat="1" ht="33" customHeight="1">
+    <row r="31" spans="1:138" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="19"/>
       <c r="E31" s="21"/>
       <c r="F31" s="41"/>
@@ -3586,12 +3590,12 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="59" t="s">
+      <c r="L31" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="M31" s="65"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="71"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="56"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
@@ -3716,14 +3720,14 @@
       <c r="EG31" s="12"/>
       <c r="EH31" s="12"/>
     </row>
-    <row r="32" spans="1:138" s="2" customFormat="1" ht="59" customHeight="1">
+    <row r="32" spans="1:138" s="2" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="14"/>
       <c r="E32" s="13" t="s">
         <v>145</v>
@@ -3735,25 +3739,25 @@
       <c r="H32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="59" t="s">
+      <c r="L32" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="M32" s="65">
+      <c r="M32" s="53">
         <v>2</v>
       </c>
-      <c r="N32" s="62" t="s">
+      <c r="N32" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="O32" s="71"/>
-    </row>
-    <row r="33" spans="1:138" s="2" customFormat="1" ht="111" customHeight="1">
+      <c r="O32" s="56"/>
+    </row>
+    <row r="33" spans="1:138" s="2" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="C33" s="47"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="14" t="s">
         <v>143</v>
       </c>
@@ -3769,23 +3773,23 @@
       <c r="H33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="59"/>
-      <c r="M33" s="65">
+      <c r="L33" s="47"/>
+      <c r="M33" s="53">
         <v>25</v>
       </c>
-      <c r="N33" s="62" t="s">
+      <c r="N33" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="O33" s="71"/>
-    </row>
-    <row r="34" spans="1:138" s="1" customFormat="1" ht="182" customHeight="1">
+      <c r="O33" s="56"/>
+    </row>
+    <row r="34" spans="1:138" s="1" customFormat="1" ht="182.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="14" t="s">
         <v>143</v>
       </c>
@@ -3801,23 +3805,23 @@
       <c r="H34" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="L34" s="59" t="s">
+      <c r="L34" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="M34" s="65"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="71" t="s">
+      <c r="M34" s="53"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="56" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:138" s="1" customFormat="1" ht="314" customHeight="1">
+    <row r="35" spans="1:138" s="1" customFormat="1" ht="314.10000000000002" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="49"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="14" t="s">
         <v>143</v>
       </c>
@@ -3828,25 +3832,25 @@
       <c r="G35" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="L35" s="59" t="s">
+      <c r="L35" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="M35" s="65">
+      <c r="M35" s="53">
         <v>14</v>
       </c>
-      <c r="N35" s="62" t="s">
+      <c r="N35" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="O35" s="71"/>
-    </row>
-    <row r="36" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+      <c r="O35" s="56"/>
+    </row>
+    <row r="36" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="14" t="s">
         <v>143</v>
       </c>
@@ -3855,21 +3859,21 @@
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="25"/>
-      <c r="L36" s="59" t="s">
+      <c r="L36" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="M36" s="65"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="71"/>
-    </row>
-    <row r="37" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+      <c r="M36" s="53"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="56"/>
+    </row>
+    <row r="37" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="16" t="s">
         <v>161</v>
       </c>
@@ -3880,23 +3884,23 @@
       <c r="G37" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="L37" s="59" t="s">
+      <c r="L37" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="M37" s="65"/>
-      <c r="N37" s="64" t="s">
+      <c r="M37" s="53"/>
+      <c r="N37" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="O37" s="71"/>
-    </row>
-    <row r="38" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+      <c r="O37" s="56"/>
+    </row>
+    <row r="38" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="47"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="16" t="s">
         <v>161</v>
       </c>
@@ -3912,25 +3916,25 @@
       <c r="H38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="59" t="s">
+      <c r="L38" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="M38" s="65">
+      <c r="M38" s="53">
         <v>30</v>
       </c>
-      <c r="N38" s="62" t="s">
+      <c r="N38" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="O38" s="71"/>
-    </row>
-    <row r="39" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+      <c r="O38" s="56"/>
+    </row>
+    <row r="39" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="16" t="s">
         <v>161</v>
       </c>
@@ -3941,23 +3945,23 @@
       <c r="G39" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="L39" s="59" t="s">
+      <c r="L39" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="M39" s="65">
+      <c r="M39" s="53">
         <v>5</v>
       </c>
-      <c r="N39" s="62" t="s">
+      <c r="N39" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="O39" s="71"/>
-    </row>
-    <row r="40" spans="1:138" s="11" customFormat="1" ht="33" customHeight="1">
+      <c r="O39" s="56"/>
+    </row>
+    <row r="40" spans="1:138" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="19"/>
       <c r="E40" s="21"/>
       <c r="F40" s="41"/>
@@ -3966,12 +3970,12 @@
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="59" t="s">
+      <c r="L40" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="M40" s="65"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="71"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="56"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
@@ -4096,14 +4100,14 @@
       <c r="EG40" s="12"/>
       <c r="EH40" s="12"/>
     </row>
-    <row r="41" spans="1:138" s="5" customFormat="1" ht="167" customHeight="1">
+    <row r="41" spans="1:138" s="5" customFormat="1" ht="167.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="16" t="s">
         <v>161</v>
       </c>
@@ -4117,27 +4121,27 @@
       <c r="H41" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L41" s="59" t="s">
+      <c r="L41" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="M41" s="65">
+      <c r="M41" s="53">
         <v>2</v>
       </c>
-      <c r="N41" s="62" t="s">
+      <c r="N41" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="O41" s="71" t="s">
+      <c r="O41" s="56" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+    <row r="42" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="47"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="16" t="s">
         <v>161</v>
       </c>
@@ -4151,23 +4155,23 @@
       <c r="H42" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="59"/>
-      <c r="M42" s="65">
+      <c r="L42" s="47"/>
+      <c r="M42" s="53">
         <v>30</v>
       </c>
-      <c r="N42" s="62" t="s">
+      <c r="N42" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="O42" s="71"/>
-    </row>
-    <row r="43" spans="1:138" s="5" customFormat="1" ht="166" customHeight="1">
+      <c r="O42" s="56"/>
+    </row>
+    <row r="43" spans="1:138" s="5" customFormat="1" ht="165.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="70"/>
       <c r="D43" s="16" t="s">
         <v>161</v>
       </c>
@@ -4177,25 +4181,25 @@
       <c r="F43" s="39"/>
       <c r="G43" s="27"/>
       <c r="H43" s="10"/>
-      <c r="L43" s="59" t="s">
+      <c r="L43" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="M43" s="65">
+      <c r="M43" s="53">
         <v>12</v>
       </c>
-      <c r="N43" s="62" t="s">
+      <c r="N43" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="O43" s="71"/>
-    </row>
-    <row r="44" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+      <c r="O43" s="56"/>
+    </row>
+    <row r="44" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="70"/>
       <c r="D44" s="16" t="s">
         <v>161</v>
       </c>
@@ -4209,25 +4213,25 @@
       <c r="H44" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="59" t="s">
+      <c r="L44" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="M44" s="65">
+      <c r="M44" s="53">
         <v>10</v>
       </c>
-      <c r="N44" s="62" t="s">
+      <c r="N44" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="O44" s="71"/>
-    </row>
-    <row r="45" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+      <c r="O44" s="56"/>
+    </row>
+    <row r="45" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="C45" s="49"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="16"/>
       <c r="E45" s="15" t="s">
         <v>140</v>
@@ -4235,21 +4239,21 @@
       <c r="F45" s="39"/>
       <c r="G45" s="27"/>
       <c r="H45" s="10"/>
-      <c r="L45" s="59" t="s">
+      <c r="L45" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="M45" s="65"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="71"/>
-    </row>
-    <row r="46" spans="1:138" s="5" customFormat="1" ht="232" customHeight="1">
+      <c r="M45" s="53"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="56"/>
+    </row>
+    <row r="46" spans="1:138" s="5" customFormat="1" ht="231.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="47"/>
+      <c r="C46" s="74"/>
       <c r="D46" s="16" t="s">
         <v>182</v>
       </c>
@@ -4261,23 +4265,23 @@
       <c r="H46" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L46" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="M46" s="58">
+      <c r="L46" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="M46" s="46">
         <v>35</v>
       </c>
-      <c r="N46" s="61" t="s">
+      <c r="N46" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="O46" s="80"/>
-    </row>
-    <row r="47" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1">
+      <c r="O46" s="62"/>
+    </row>
+    <row r="47" spans="1:138" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18"/>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="C47" s="49"/>
+      <c r="C47" s="70"/>
       <c r="D47" s="16" t="s">
         <v>6</v>
       </c>
@@ -4286,20 +4290,51 @@
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="25"/>
-      <c r="L47" s="59" t="s">
+      <c r="L47" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="M47" s="58"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="80"/>
-    </row>
-    <row r="48" spans="1:138">
-      <c r="L48" s="58" t="s">
+      <c r="M47" s="46"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="62"/>
+    </row>
+    <row r="48" spans="1:138" x14ac:dyDescent="0.15">
+      <c r="L48" s="46" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="O15:O17"/>
     <mergeCell ref="B35:C35"/>
@@ -4316,37 +4351,6 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4367,7 +4371,7 @@
       <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4386,7 +4390,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
